--- a/ideas/SkillViz.xlsx
+++ b/ideas/SkillViz.xlsx
@@ -8,16 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HSLU\portfolio\becker-max.github.io\ideas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E1F79-24DB-4DBC-9495-51F51974238C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586FF891-D47C-44BF-B005-80939A3BB892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{A3801ECE-BBDA-49A9-9AB3-5F9ED1B070C2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{A3801ECE-BBDA-49A9-9AB3-5F9ED1B070C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="ProgressBar" sheetId="1" r:id="rId1"/>
     <sheet name="www.sankeymatic.comSLASHbuild" sheetId="2" r:id="rId2"/>
+    <sheet name="SunburstTry" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'www.sankeymatic.comSLASHbuild'!$A$1:$G$41</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">SunburstTry!$A$2:$D$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">SunburstTry!$E$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">SunburstTry!$E$2:$E$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">SunburstTry!$A$2:$D$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">SunburstTry!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">SunburstTry!$E$2:$E$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="39">
   <si>
     <t>Practical application</t>
   </si>
@@ -131,6 +138,30 @@
   </si>
   <si>
     <t>Leerschlag2</t>
+  </si>
+  <si>
+    <t>Theoretical knowledge anteil</t>
+  </si>
+  <si>
+    <t>Practical application anteil</t>
+  </si>
+  <si>
+    <t>Work experience anteil</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Tier1</t>
+  </si>
+  <si>
+    <t>Tier2</t>
+  </si>
+  <si>
+    <t>Tier3</t>
+  </si>
+  <si>
+    <t>Wert</t>
   </si>
 </sst>
 </file>
@@ -210,6 +241,673 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{F92A5F57-FDE9-48B2-A999-E0EA09C34B5A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Wert</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>907254</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Diagramm 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DC1D34-02E1-4082-8A14-4160DB086AE9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="907254" y="3378992"/>
+              <a:ext cx="10846596" cy="6336508"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004B64AB-4DAE-4056-865E-DDD158CB2669}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="A15" activeCellId="3" sqref="A2 A4:A6 A11:A12 A15:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -521,9 +1219,12 @@
     <col min="2" max="2" width="18.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -533,126 +1234,431 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>IF(B2=1,1/(B2*3),0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:G2" si="0">IF(C2=1,1/(C2*3),0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E17" si="1">IF(B3=1,1/(B3*3),0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F17" si="2">IF(C3=1,1/(C3*3),0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G17" si="3">IF(D3=1,1/(D3*3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -664,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4ADBA79-B3CD-4C57-ABD0-65F6D299882A}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -704,7 +1710,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
-        <f>COUNTIF(B:B,B2)</f>
+        <f t="shared" ref="A2:A41" si="0">COUNTIF(B:B,B2)</f>
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -729,7 +1735,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
-        <f>COUNTIF(B:B,B3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -748,13 +1754,13 @@
         <v>23</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G41" si="0">B3&amp;C3&amp;D3&amp;E3&amp;F3</f>
+        <f t="shared" ref="G3:G41" si="1">B3&amp;C3&amp;D3&amp;E3&amp;F3</f>
         <v>Eggplant SenseTalk [1] Practical Application</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
-        <f>COUNTIF(B:B,B4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -773,13 +1779,13 @@
         <v>22</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Eggplant SenseTalk [1] Work Experience</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
-        <f>COUNTIF(B:B,B5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -798,13 +1804,13 @@
         <v>18</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ITIL® Foundation IT Service Management [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
-        <f>COUNTIF(B:B,B6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -823,13 +1829,13 @@
         <v>23</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ITIL® Foundation IT Service Management [1] Practical Application</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
-        <f>COUNTIF(B:B,B7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" t="s">
@@ -848,13 +1854,13 @@
         <v>22</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ITIL® Foundation IT Service Management [1] Work Experience</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
-        <f>COUNTIF(B:B,B8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B8" t="s">
@@ -873,13 +1879,13 @@
         <v>18</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Java [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
-        <f>COUNTIF(B:B,B9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -898,13 +1904,13 @@
         <v>23</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Java [1] Practical Application</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
-        <f>COUNTIF(B:B,B10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" t="s">
@@ -923,13 +1929,13 @@
         <v>22</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Java [1] Work Experience</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
-        <f>COUNTIF(B:B,B11)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B11" t="s">
@@ -948,13 +1954,13 @@
         <v>18</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Java Script [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
-        <f>COUNTIF(B:B,B12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B12" t="s">
@@ -973,13 +1979,13 @@
         <v>23</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Java Script [1] Practical Application</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
-        <f>COUNTIF(B:B,B13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B13" t="s">
@@ -998,13 +2004,13 @@
         <v>22</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Java Script [1] Work Experience</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
-        <f>COUNTIF(B:B,B14)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B14" t="s">
@@ -1023,13 +2029,13 @@
         <v>18</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Jira [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
-        <f>COUNTIF(B:B,B15)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B15" t="s">
@@ -1048,13 +2054,13 @@
         <v>23</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Jira [1] Practical Application</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
-        <f>COUNTIF(B:B,B16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B16" t="s">
@@ -1073,13 +2079,13 @@
         <v>22</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Jira [1] Work Experience</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
-        <f>COUNTIF(B:B,B17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B17" t="s">
@@ -1098,13 +2104,13 @@
         <v>18</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Linux (Shell Scripting, UNIX) [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
-        <f>COUNTIF(B:B,B18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -1123,13 +2129,13 @@
         <v>23</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Linux (Shell Scripting, UNIX) [1] Practical Application</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
-        <f>COUNTIF(B:B,B19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B19" t="s">
@@ -1148,13 +2154,13 @@
         <v>22</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Linux (Shell Scripting, UNIX) [1] Work Experience</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
-        <f>COUNTIF(B:B,B20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B20" t="s">
@@ -1173,13 +2179,13 @@
         <v>18</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Microsoft Excel [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
-        <f>COUNTIF(B:B,B21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B21" t="s">
@@ -1198,13 +2204,13 @@
         <v>23</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Microsoft Excel [1] Practical Application</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
-        <f>COUNTIF(B:B,B22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B22" t="s">
@@ -1223,13 +2229,13 @@
         <v>22</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Microsoft Excel [1] Work Experience</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
-        <f>COUNTIF(B:B,B23)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B23" t="s">
@@ -1248,13 +2254,13 @@
         <v>18</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Python [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
-        <f>COUNTIF(B:B,B24)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B24" t="s">
@@ -1273,13 +2279,13 @@
         <v>23</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Python [1] Practical Application</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
-        <f>COUNTIF(B:B,B25)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B25" t="s">
@@ -1298,13 +2304,13 @@
         <v>22</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Python [1] Work Experience</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
-        <f>COUNTIF(B:B,B26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B26" t="s">
@@ -1323,13 +2329,13 @@
         <v>18</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SQL [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
-        <f>COUNTIF(B:B,B27)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B27" t="s">
@@ -1348,13 +2354,13 @@
         <v>23</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SQL [1] Practical Application</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
-        <f>COUNTIF(B:B,B28)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B28" t="s">
@@ -1373,13 +2379,13 @@
         <v>22</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SQL [1] Work Experience</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
-        <f>COUNTIF(B:B,B29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B29" t="s">
@@ -1398,13 +2404,13 @@
         <v>18</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Big Data Technologies (e.g., Cloudera, Hadoop) [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
-        <f>COUNTIF(B:B,B30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B30" t="s">
@@ -1423,13 +2429,13 @@
         <v>23</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Big Data Technologies (e.g., Cloudera, Hadoop) [1] Practical Application</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
-        <f>COUNTIF(B:B,B31)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B31" t="s">
@@ -1448,13 +2454,13 @@
         <v>18</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Decision Support Systems [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
-        <f>COUNTIF(B:B,B32)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B32" t="s">
@@ -1473,13 +2479,13 @@
         <v>23</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Decision Support Systems [1] Practical Application</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
-        <f>COUNTIF(B:B,B33)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B33" t="s">
@@ -1498,13 +2504,13 @@
         <v>18</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Machine Learning [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
-        <f>COUNTIF(B:B,B34)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B34" t="s">
@@ -1523,13 +2529,13 @@
         <v>23</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Machine Learning [1] Practical Application</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
-        <f>COUNTIF(B:B,B35)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B35" t="s">
@@ -1548,13 +2554,13 @@
         <v>18</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
-        <f>COUNTIF(B:B,B36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B36" t="s">
@@ -1573,13 +2579,13 @@
         <v>23</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R [1] Practical Application</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
-        <f>COUNTIF(B:B,B37)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B37" t="s">
@@ -1598,13 +2604,13 @@
         <v>18</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Shiny [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
-        <f>COUNTIF(B:B,B38)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B38" t="s">
@@ -1623,13 +2629,13 @@
         <v>23</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Shiny [1] Practical Application</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
-        <f>COUNTIF(B:B,B39)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B39" t="s">
@@ -1648,13 +2654,13 @@
         <v>18</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tableau [1] Theoretical Knowledge</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
-        <f>COUNTIF(B:B,B40)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B40" t="s">
@@ -1673,13 +2679,13 @@
         <v>23</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tableau [1] Practical Application</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
-        <f>COUNTIF(B:B,B41)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B41" t="s">
@@ -1698,7 +2704,7 @@
         <v>18</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Business Intelligence [1] Theoretical Knowledge</v>
       </c>
     </row>
@@ -1706,4 +2712,298 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CADD4FD-BBBF-4F1F-B309-828AB83827A7}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>